--- a/biology/Zoologie/Appias_albina/Appias_albina.xlsx
+++ b/biology/Zoologie/Appias_albina/Appias_albina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Appias albina est une espèce de lépidoptères (papillons) de la famille des Pieridae et de la sous-famille des Pierinae.
 </t>
@@ -511,15 +523,121 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Décrit par l'entomologiste français Boisduval, en 1836. Il existe un sous-genre, le nom complet est Appias (Catophaga) albina.
-Synonyme
-Pieris albina (Boisduval, 1836)
-Noms vernaculaires
-Ce papillon se nomme en anglais Common Albatross ou White Albatross.
-Sous-espèces
-Appias albina albina en Inde, Malaisie, Thaïlande, Indochine, Indonésie, à Bornéo, aux Moluques et à Timor.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décrit par l'entomologiste français Boisduval, en 1836. Il existe un sous-genre, le nom complet est Appias (Catophaga) albina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonyme</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Pieris albina (Boisduval, 1836)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon se nomme en anglais Common Albatross ou White Albatross.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Appias albina albina en Inde, Malaisie, Thaïlande, Indochine, Indonésie, à Bornéo, aux Moluques et à Timor.
 Appias albina agatha (Staudinge) aux Philippines.
 Appias albina  confusa (Fruhstorfer, 1910)
 Appias albina  f. flava
@@ -529,107 +647,253 @@
 Appias albina pulverobasalis (Joicey et Noakes)
 Appias albina semperi (Moore, 1905) à Taïwan et aux Philippines.
 Appias albina venusta (Moore) à Ceylan.
-Appias albina wallace (Butler) aux Nouvelles Hébrides[1]. .</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Appias_albina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+Appias albina wallace (Butler) aux Nouvelles Hébrides. .</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mâle et la femelle sont d'une couleur blanche à jaune clair sur les deux faces. L'apex des antérieures est bordé de noir sur le dessus. La femelle présente une suffusion jaune et suivant les formes soit un point discoïdal soit une ligne marron aux antérieures. Il existe un dimorphisme suivant la saison.
-Chenille
-Elle est verte avec une bande jaune pâle.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Appias_albina</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est verte avec une bande jaune pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un migrateur en Inde[2]. En Australie il pourrait être résident non migrateur[3].
-Plantes hôtes
-Ce sont des Cratevas[1]. Suivant d'autres sources les plantes hôtes sont Drypetes oblongifolia, Drypetes roxburghii et Drypetes venusta[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un migrateur en Inde. En Australie il pourrait être résident non migrateur.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Appias_albina</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Cratevas. Suivant d'autres sources les plantes hôtes sont Drypetes oblongifolia, Drypetes roxburghii et Drypetes venusta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appias albina est présent en Indochine, en Inde, dans l'ouest de la Chine,  à Taïwan, à Ceylan, en Malaisie, en Thaïlande, Indochine, Indonésie, à Bornéo, aux Moluques et à Timor, aux Philippines, en Nouvelle-Calédonie, aux Nouvelles Hébrides et en Australie[1].
-Biotope
-Appias albina  réside au-dessus de 800 mètres d'altitude[5].
-Protection
-Pas de statut de protection particulier.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appias albina est présent en Indochine, en Inde, dans l'ouest de la Chine,  à Taïwan, à Ceylan, en Malaisie, en Thaïlande, Indochine, Indonésie, à Bornéo, aux Moluques et à Timor, aux Philippines, en Nouvelle-Calédonie, aux Nouvelles Hébrides et en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appias albina  réside au-dessus de 800 mètres d'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Appias_albina</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Appias_albina</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
